--- a/gradinghints/images/images.xlsx
+++ b/gradinghints/images/images.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="4515" windowHeight="6225" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="4515" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Example1a" sheetId="1" r:id="rId1"/>
@@ -256,9 +256,6 @@
     <t>Printing instructions:</t>
   </si>
   <si>
-    <t>convert images.tif -trim whitepaper-grades-example-img.png</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">* Print to </t>
     </r>
@@ -320,13 +317,16 @@
   <si>
     <t>▶ 2.27</t>
   </si>
+  <si>
+    <t>convert images.tif -trim -geometry 600x whitepaper-grades-example-img.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.00\ \ &quot; ⓘ&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00\ \ &quot; ⓘ&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -503,6 +503,20 @@
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,33 +529,82 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,69 +612,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -929,72 +929,72 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -1003,17 +1003,17 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="38" t="s">
-        <v>51</v>
+      <c r="C16" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1050,129 +1050,132 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="13" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="36" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="36" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="6"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="36" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="36" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="6"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="G4:G12"/>
     <mergeCell ref="B2:D2"/>
@@ -1189,9 +1192,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1217,203 +1217,216 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="6"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="34" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="6"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="35" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="6"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="35" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="6"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="30" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="34" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="6"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="22"/>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="35" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="6"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="22"/>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="35" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="6"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="I4:I16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -1430,19 +1443,6 @@
     <mergeCell ref="H6:H10"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:B16"/>
-    <mergeCell ref="I4:I16"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1468,203 +1468,216 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="6"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="30" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="34" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="6"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="35" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="6"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="35" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="6"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="30" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="34" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="6"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="22"/>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="35" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="6"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="22" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="22"/>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="35" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="6"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="I4:I16"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:C10"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C11:E11"/>
@@ -1681,19 +1694,6 @@
     <mergeCell ref="H6:H10"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:B16"/>
-    <mergeCell ref="I4:I16"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1719,229 +1719,245 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="6"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="34" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="6"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="35" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="6"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="35" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="6"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="30" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="34" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="6"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="22"/>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="36" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="6"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="16" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="36" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="6"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="16" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="38"/>
+      <c r="F17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="36" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="6"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="I4:I18"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
@@ -1958,22 +1974,6 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="I4:I18"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1999,229 +1999,247 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="6"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="34" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="6"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="35" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="6"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="35" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="6"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="30" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="6"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="34" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="6"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="22"/>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="36" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="6"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="16" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="14" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="36" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="6"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="16" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14" t="s">
+      <c r="E17" s="38"/>
+      <c r="F17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="6"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="36" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="6"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:I18"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
@@ -2236,24 +2254,6 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:I18"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C6:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2264,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,138 +2279,129 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="6"/>
+      <c r="E7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="22" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="6"/>
+      <c r="E9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="6"/>
+      <c r="E11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="B3:D3"/>
@@ -2421,6 +2412,15 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/gradinghints/images/images.xlsx
+++ b/gradinghints/images/images.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ws\git_taskxml\gradinghints\images\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="4515" windowHeight="6225"/>
+    <workbookView xWindow="240" yWindow="50" windowWidth="4520" windowHeight="6230" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Example1a" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">Example4!$B$2:$I$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Example5!$B$2:$I$18</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -193,35 +198,6 @@
   </si>
   <si>
     <t>▶ passed ▶ 1.00 ▶ 0.30   ⓘ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Score is calculated as (from left to right)
- ▶ Test result
- ▶ Nullification. No reduction to 0.00, because unweighted </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Best result of all unit test aspects</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> score should be &gt;= 0.5, and was 0.75
- ▶ Multiplication by a weight factor 0.30</t>
-    </r>
   </si>
   <si>
     <r>
@@ -320,11 +296,65 @@
   <si>
     <t>convert images.tif -trim -geometry 600x whitepaper-grades-example-img.png</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Score is calculated as (from left to right)
+ ▶ Test result
+ ▶ Compilation score gets nullified when all unit tests miss 0.5.
+Students are not allowed to steal compilation points by submitting fake programs with near-to-zero functionality. That's why compilation score gets nullified when there is no successful unit test.
+No reduction to 0.00, because at least one of the following conditions was True:
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unit test, aspect A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should be &gt;= 0.5 and was 0.15.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unit test, aspect B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should be &gt;= 0.5 and was 0.75.
+ ▶ Multiplication by a weight factor 0.30</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ \ &quot; ⓘ&quot;"/>
   </numFmts>
@@ -535,6 +565,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,39 +595,39 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -599,12 +635,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,14 +653,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -668,9 +701,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,7 +738,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,7 +773,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -916,19 +949,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.26953125" customWidth="1"/>
+    <col min="5" max="5" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
@@ -938,7 +971,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -948,7 +981,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="8"/>
       <c r="C4" s="11" t="s">
         <v>30</v>
@@ -956,7 +989,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -966,7 +999,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -976,7 +1009,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -986,7 +1019,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -996,24 +1029,24 @@
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C16" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1039,159 +1072,159 @@
       <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34.81640625" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" customWidth="1"/>
+    <col min="7" max="7" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
       <c r="C4" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="22" t="s">
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="15"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="22" t="s">
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="15"/>
+      <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="15"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="22" t="s">
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="15"/>
+      <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="15"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="22" t="s">
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="15"/>
+      <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="15"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="G4:G12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1206,31 +1239,31 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="8" width="4.140625" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="4" width="4.1796875" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" customWidth="1"/>
+    <col min="7" max="8" width="4.1796875" customWidth="1"/>
+    <col min="9" max="9" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1244,176 +1277,189 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="25" t="s">
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+      <c r="C5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="15"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="22" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="15"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="27"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="15"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="22" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="15"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="27"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="15"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="25" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="15"/>
+      <c r="C11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28" t="s">
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="15"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="22" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="15"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="27"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="15"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="22" t="s">
+      <c r="H14" s="26"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="15"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="27"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="15"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="13"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>
@@ -1430,19 +1476,6 @@
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1457,31 +1490,31 @@
       <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="8" width="4.140625" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="4" width="4.1796875" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" customWidth="1"/>
+    <col min="7" max="8" width="4.1796875" customWidth="1"/>
+    <col min="9" max="9" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1495,176 +1528,189 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="25" t="s">
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+      <c r="C5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="15"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="22" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="15"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="27"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="15"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="22" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="15"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="27"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="15"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="25" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="15"/>
+      <c r="C11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="22" t="s">
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="15"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="15"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="27"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="15"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="22" t="s">
+      <c r="H14" s="26"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="15"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="27"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="15"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="13"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -1681,19 +1727,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1708,31 +1741,31 @@
       <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="8" width="4.140625" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="4" width="4.1796875" customWidth="1"/>
+    <col min="5" max="5" width="30.7265625" customWidth="1"/>
+    <col min="6" max="6" width="29.453125" customWidth="1"/>
+    <col min="7" max="8" width="4.1796875" customWidth="1"/>
+    <col min="9" max="9" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1746,202 +1779,218 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="25" t="s">
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+      <c r="C5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="15"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="22" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="15"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="27"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="15"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="22" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="15"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="27"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="15"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="25" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="15"/>
+      <c r="C11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28" t="s">
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="15"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="22" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="15"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="35" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="27"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="15"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="27"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="15"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="38"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="27"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="15"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="27"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="15"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="37" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="38"/>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="27"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="15"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="13"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B3:E3"/>
@@ -1958,22 +2007,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1984,35 +2017,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1"/>
-    <col min="7" max="8" width="4.140625" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="4" width="4.1796875" customWidth="1"/>
+    <col min="5" max="5" width="28.7265625" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" customWidth="1"/>
+    <col min="7" max="8" width="4.1796875" customWidth="1"/>
+    <col min="9" max="9" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
@@ -2026,202 +2059,218 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="25" t="s">
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+      <c r="C5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="15"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="22" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="15"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="27"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="2:9" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="15"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="31"/>
+      <c r="E8" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="28"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="22" t="s">
+      <c r="H8" s="26"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="15"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="27"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="15"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="25" t="s">
+      <c r="H10" s="26"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="15"/>
+      <c r="C11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28" t="s">
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="15"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="22" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="15"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="35" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="27"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="15"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="27"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="15"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="38"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="27"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="15"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="27"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="15"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="37" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="38"/>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="27"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="15"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="13"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="B3:E3"/>
@@ -2238,22 +2287,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2268,140 +2301,143 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="4.1796875" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34.81640625" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" customWidth="1"/>
+    <col min="7" max="7" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="15"/>
       <c r="C4" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="22" t="s">
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="15"/>
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="15"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="20"/>
+      <c r="D6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="22"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="22" t="s">
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="15"/>
+      <c r="C7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="15"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="20"/>
+      <c r="D8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="22"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="22" t="s">
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="15"/>
+      <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="15"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="20"/>
+      <c r="D10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="22"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="22" t="s">
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="15"/>
+      <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="15"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="20"/>
+      <c r="D12" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="22"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="B3:D3"/>
@@ -2418,9 +2454,6 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
